--- a/biology/Médecine/Rétigabine/Rétigabine.xlsx
+++ b/biology/Médecine/Rétigabine/Rétigabine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9tigabine</t>
+          <t>Rétigabine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La rétigabine ou ezogabine est le principe actif d'un médicament antiépileptique développé par les sociétés Valeant Pharmaceuticals et GlaxoSmithKline. Elle a été approuvée par la Food and Drug Administration (FDA), sous le nom de Potiga, le 10 juin 2010 et par l'Agence européenne des médicaments sous le nom de Trobalt le 28 mars 2011.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R%C3%A9tigabine</t>
+          <t>Rétigabine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Indications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La rétigabine est limitée au traitement des crises d’épilepsie partielles résistantes, avec ou sans généralisation secondaire, chez les patients épileptiques âgés de 18 ans et plus, en association, lorsque les autres associations médicamenteuses appropriées se sont révélées inadéquates ou n’ont pas été tolérées[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La rétigabine est limitée au traitement des crises d’épilepsie partielles résistantes, avec ou sans généralisation secondaire, chez les patients épileptiques âgés de 18 ans et plus, en association, lorsque les autres associations médicamenteuses appropriées se sont révélées inadéquates ou n’ont pas été tolérées.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R%C3%A9tigabine</t>
+          <t>Rétigabine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,10 +557,12 @@
           <t>Mode d'action</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Des études in vitro indiquent que la rétigabine agit essentiellement par l'ouverture des canaux potassiques neuronaux (KCNQ2 [Kv7.2] et KCNQ3 [Kv7.3])[4].
-Ce mécanisme d'action est unique parmi les médicaments antiépileptiques et peut-être prometteur pour le traitement d'autres affections neurologiques, y compris la migraine[5], et certaines névralgies.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des études in vitro indiquent que la rétigabine agit essentiellement par l'ouverture des canaux potassiques neuronaux (KCNQ2 [Kv7.2] et KCNQ3 [Kv7.3]).
+Ce mécanisme d'action est unique parmi les médicaments antiépileptiques et peut-être prometteur pour le traitement d'autres affections neurologiques, y compris la migraine, et certaines névralgies.
 </t>
         </is>
       </c>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>R%C3%A9tigabine</t>
+          <t>Rétigabine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,9 +591,11 @@
           <t>Effets indésirables</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Des données de pharmacovigilance rapportant des cas de modifications pigmentaires des tissus oculaires, incluant la rétine, ainsi que de la peau, des lèvres et/ou des ongles ont conduit à une restriction d’indication de la rétigabine[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des données de pharmacovigilance rapportant des cas de modifications pigmentaires des tissus oculaires, incluant la rétine, ainsi que de la peau, des lèvres et/ou des ongles ont conduit à une restriction d’indication de la rétigabine.
 </t>
         </is>
       </c>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>R%C3%A9tigabine</t>
+          <t>Rétigabine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,9 +624,11 @@
           <t>Fin de la commercialisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2017, GSK annonce sa décision, à partir de juin de cette année, de cesser la commercialisation du Trobalt , en raison de son utilisation très limitée et de la baisse continue du nombre de patients traités. Cette décision est vivement regrettée par la communauté médicale, car pour un certain nombre de malades, il n'existe aucune alternative médicamenteuse. Un dernier espoir est que la molécule soit reprise par un laboratoire spécialisé dans les médicaments destinés aux maladies orphelines[6].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2017, GSK annonce sa décision, à partir de juin de cette année, de cesser la commercialisation du Trobalt , en raison de son utilisation très limitée et de la baisse continue du nombre de patients traités. Cette décision est vivement regrettée par la communauté médicale, car pour un certain nombre de malades, il n'existe aucune alternative médicamenteuse. Un dernier espoir est que la molécule soit reprise par un laboratoire spécialisé dans les médicaments destinés aux maladies orphelines.
 </t>
         </is>
       </c>
